--- a/web_helper/data/bank.xlsx
+++ b/web_helper/data/bank.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/web_helper/data/bank.xlsx
+++ b/web_helper/data/bank.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>国际电汇业务收费</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>0.6%</t>
+  </si>
+  <si>
+    <t>工商银行  -  牡丹国际借记卡VISA卡</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:R15"/>
+  <dimension ref="B1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -858,6 +861,11 @@
       </c>
       <c r="G15" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/web_helper/data/bank.xlsx
+++ b/web_helper/data/bank.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>国际电汇业务收费</t>
   </si>
@@ -135,7 +135,76 @@
     <t>0.6%</t>
   </si>
   <si>
-    <t>工商银行  -  牡丹国际借记卡VISA卡</t>
+    <t>西联</t>
+  </si>
+  <si>
+    <t>金额(USD)</t>
+  </si>
+  <si>
+    <t>收费(USD)</t>
+  </si>
+  <si>
+    <t>&lt;=500</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>500~1000</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1000~2000</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2000~5000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>5000~10000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>超过1000，每增加500，加收20</t>
+  </si>
+  <si>
+    <t>PayPay</t>
+  </si>
+  <si>
+    <t>3.9%+0.4USD</t>
+  </si>
+  <si>
+    <t>&lt;=3000</t>
+  </si>
+  <si>
+    <t>3000~10000</t>
+  </si>
+  <si>
+    <t>3.4%+0.4USD</t>
+  </si>
+  <si>
+    <t>10000~100000</t>
+  </si>
+  <si>
+    <t>3.2%+0.4USD</t>
+  </si>
+  <si>
+    <t>&gt;=100000</t>
+  </si>
+  <si>
+    <t>2.9%+0.4USD</t>
+  </si>
+  <si>
+    <t>VISA(工商银行牡丹国际借记卡VISA卡)</t>
   </si>
 </sst>
 </file>
@@ -485,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:R20"/>
+  <dimension ref="B2:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,17 +567,20 @@
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
     <col min="13" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="2:18">
+      <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:18">
@@ -863,9 +935,112 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="1" t="s">
+    <row r="16" spans="2:18">
+      <c r="K16" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12">
+      <c r="K17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12">
+      <c r="K18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12">
+      <c r="K19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12">
+      <c r="K20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12">
+      <c r="K21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12">
+      <c r="K22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12">
+      <c r="K23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12">
+      <c r="K24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12">
+      <c r="K28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="11:12">
+      <c r="K29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="11:12">
+      <c r="K30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="11:12">
+      <c r="K31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="11:12">
+      <c r="K32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12">
+      <c r="K33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/web_helper/data/bank.xlsx
+++ b/web_helper/data/bank.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>国际电汇业务收费</t>
   </si>
@@ -205,18 +205,53 @@
   </si>
   <si>
     <t>VISA(工商银行牡丹国际借记卡VISA卡)</t>
+  </si>
+  <si>
+    <t>skrill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.67CNY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1%  Max[76.22CNY] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,11 +301,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -344,6 +384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -378,6 +419,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,29 +595,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="16.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="1" customWidth="1"/>
+    <col min="13" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -621,7 +663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -655,7 +697,7 @@
       </c>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -685,7 +727,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -715,7 +757,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,7 +787,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -775,7 +817,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -805,7 +847,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -835,7 +877,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -855,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -875,7 +917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -895,7 +937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -915,7 +957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -935,12 +977,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="K16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="11:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K17" s="2" t="s">
         <v>40</v>
       </c>
@@ -948,7 +990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="11:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K18" s="2" t="s">
         <v>42</v>
       </c>
@@ -956,7 +998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="11:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K19" s="2" t="s">
         <v>44</v>
       </c>
@@ -964,7 +1006,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="11:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>46</v>
       </c>
@@ -972,7 +1017,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="11:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>48</v>
       </c>
@@ -980,7 +1031,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="11:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K22" s="2" t="s">
         <v>50</v>
       </c>
@@ -988,22 +1045,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="11:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="11:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="11:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="11:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1011,7 +1074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="11:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K30" s="2" t="s">
         <v>55</v>
       </c>
@@ -1019,7 +1082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="11:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K31" s="2" t="s">
         <v>56</v>
       </c>
@@ -1027,7 +1090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="11:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="K32" s="2" t="s">
         <v>58</v>
       </c>
@@ -1035,7 +1098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="11:12">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.15">
       <c r="K33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1044,39 +1107,42 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/web_helper/data/bank.xlsx
+++ b/web_helper/data/bank.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bank" sheetId="1" r:id="rId1"/>
+    <sheet name="Skrill" sheetId="2" r:id="rId2"/>
+    <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>国际电汇业务收费</t>
   </si>
@@ -207,51 +207,184 @@
     <t>VISA(工商银行牡丹国际借记卡VISA卡)</t>
   </si>
   <si>
-    <t>skrill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存款费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取款费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.67CNY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1%  Max[76.22CNY] </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Bronze Level</t>
+  </si>
+  <si>
+    <t>Silver Level</t>
+  </si>
+  <si>
+    <t>Gold Level</t>
+  </si>
+  <si>
+    <t>Diamond Level</t>
+  </si>
+  <si>
+    <t>Priority bank uploads</t>
+  </si>
+  <si>
+    <t>100% Money-back Guarantee with free Security Token</t>
+  </si>
+  <si>
+    <t>24/7 VIP Support</t>
+  </si>
+  <si>
+    <t>VIP Loyalty Club membership*</t>
+  </si>
+  <si>
+    <t>Exclusive promotions*</t>
+  </si>
+  <si>
+    <t>Free Skrill Prepaid MasterCard®</t>
+  </si>
+  <si>
+    <t>Ambassador programme*</t>
+  </si>
+  <si>
+    <t>Personal Account Manager</t>
+  </si>
+  <si>
+    <t>Skrill Prepaid MasterCard® ATM limits</t>
+  </si>
+  <si>
+    <t>€250 daily limit</t>
+  </si>
+  <si>
+    <t>€500 daily limit</t>
+  </si>
+  <si>
+    <t>€2,500 daily limit</t>
+  </si>
+  <si>
+    <t>Lower card upload fees**</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Lower bank withdrawal fees</t>
+  </si>
+  <si>
+    <t>Send money</t>
+  </si>
+  <si>
+    <t>1% capped at €1.</t>
+  </si>
+  <si>
+    <t>Lower FX fees</t>
+  </si>
+  <si>
+    <t>2.49%, 2.99%, 3.49%^</t>
+  </si>
+  <si>
+    <t>2.25%, 2.75%, 3.25%^^</t>
+  </si>
+  <si>
+    <t>1.99%, 2.49%, 2.99%^^^</t>
+  </si>
+  <si>
+    <t>Multi-currency account</t>
+  </si>
+  <si>
+    <t>+1 account</t>
+  </si>
+  <si>
+    <t>+2 accounts</t>
+  </si>
+  <si>
+    <t>+3 accounts</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>VIP Benefit</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronze level </t>
+  </si>
+  <si>
+    <t>Transact over €6,000 within 3 months</t>
+  </si>
+  <si>
+    <t>Transact over €15,000 within 3 months</t>
+  </si>
+  <si>
+    <t>Transact over €45,000 within 3 months.</t>
+  </si>
+  <si>
+    <t>Transact over €90,000 within 3 months.</t>
+  </si>
+  <si>
+    <t>VIP Level</t>
+  </si>
+  <si>
+    <t>Skrill Fee</t>
+  </si>
+  <si>
+    <t>22.67[CNY]、2.95[EUR]</t>
+  </si>
+  <si>
+    <t>1.0%   Max :76.14[CNY],9.95[EUR]</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Upload funds</t>
+  </si>
+  <si>
+    <t>Withdraw funds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send money </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive money </t>
+  </si>
+  <si>
+    <t>Bank、SWIFT ：FREE  &amp;  American Express、JCB、MasterCard、VISA：1.9%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -290,11 +423,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -309,8 +473,145 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2053" name="AutoShape 5" descr="Yes"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2079" name="AutoShape 31" descr="Yes"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2466975" y="5334000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2082" name="AutoShape 34" descr="Yes"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2466975" y="6096000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="AutoShape 7" descr="Yes"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6276975" y="190500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -384,7 +685,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -419,7 +719,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,29 +894,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="16.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="1" customWidth="1"/>
-    <col min="13" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.125" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:18">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -663,7 +962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -697,7 +996,7 @@
       </c>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -727,7 +1026,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:18">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -757,7 +1056,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:18">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -787,7 +1086,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -817,7 +1116,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -847,7 +1146,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:18">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -877,7 +1176,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:18">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -897,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:18">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -917,7 +1216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:18">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -937,7 +1236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:18">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -957,7 +1256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:18">
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -975,135 +1274,6 @@
       </c>
       <c r="G15" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="K16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.15">
-      <c r="K33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1114,34 +1284,490 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="38" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="G10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="G12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="G13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2.95</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="G16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11">
+      <c r="G17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11">
+      <c r="G18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
